--- a/data/excel/v12StagingHotel.xlsx
+++ b/data/excel/v12StagingHotel.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268B7188-5453-4F57-9D92-73F60F1335BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PossitiveTestCases" sheetId="19" r:id="rId1"/>
     <sheet name="NegativeTestCases" sheetId="20" r:id="rId2"/>
     <sheet name="TestCases" sheetId="24" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="158">
   <si>
     <t>URL</t>
   </si>
@@ -383,12 +384,6 @@
     <t>del</t>
   </si>
   <si>
-    <t>26-Sep-2022</t>
-  </si>
-  <si>
-    <t>29-Sep-2022</t>
-  </si>
-  <si>
     <t>1,1</t>
   </si>
   <si>
@@ -413,12 +408,6 @@
     <t>1 Star and above</t>
   </si>
   <si>
-    <t>21-Nov-2022</t>
-  </si>
-  <si>
-    <t>25-Nov-2022</t>
-  </si>
-  <si>
     <t>Delhi, DL ,India (DEL )</t>
   </si>
   <si>
@@ -492,12 +481,42 @@
   </si>
   <si>
     <t>Test Hotel 18</t>
+  </si>
+  <si>
+    <t>21-Oct-2023</t>
+  </si>
+  <si>
+    <t>25-Oct-2023</t>
+  </si>
+  <si>
+    <t>34-Oct-2023</t>
+  </si>
+  <si>
+    <t>3-Oct-2023</t>
+  </si>
+  <si>
+    <t>26-Sep-2023</t>
+  </si>
+  <si>
+    <t>29-Sep-2023</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>15-May-2021,20-Jun-2021,25-Jul-2015</t>
+  </si>
+  <si>
+    <t>15-May-2021,20-Jun-2021,25-Jul-2021</t>
+  </si>
+  <si>
+    <t>2,2,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81342A24-7FFF-49FD-AF96-CFC8F41C1274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -1324,25 +1343,25 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations disablePrompts="1" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{7E70E787-3B1A-4DD6-AB3E-AE0E956F1727}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3" xr:uid="{0D99836E-B1C2-4394-A205-2A931CC15DF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{0BA81BDF-6F01-492C-85F2-7B92E423D18C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"LogIn,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{4A67FE85-4B6B-41D7-A68C-147178F7761D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3" xr:uid="{78146299-DA6D-40EB-ACC7-E9A3744602FA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF5AD74E-D550-455E-BE50-26C820062BE8}"/>
-    <hyperlink ref="T3" r:id="rId2" xr:uid="{6DA0D4C0-7157-463E-97F8-B6EF5A5EC3BB}"/>
+    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1350,7 +1369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787C39B5-FAC3-4A0F-AE4E-97751EE7B57E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -2499,43 +2518,43 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S10" xr:uid="{EC0A0871-B8D2-4FB1-8F30-65A91FB494A6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S10">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q10" xr:uid="{EF56E8C9-A53E-4B27-AFBF-47242A16FFB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q10">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{FDEF2BD7-3CDA-48A0-8D31-ED3C8104AFE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
       <formula1>"LogIn,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB10" xr:uid="{FEE4CDD8-156B-434A-9289-3DD99BFD0837}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB10">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA10" xr:uid="{0E974C44-6B3E-411E-8CEB-E515E07B5B3A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA10">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{3C2F7218-CA58-4611-A980-7830916FADDE}"/>
-    <hyperlink ref="T6" r:id="rId2" xr:uid="{6B273686-991A-40BB-87C1-A97C13059E5A}"/>
-    <hyperlink ref="T7" r:id="rId3" xr:uid="{87D0D501-2169-40A3-BFA2-0AB9357FD4E1}"/>
-    <hyperlink ref="T4" r:id="rId4" xr:uid="{298FDBFE-AB9A-48C6-AEAE-07007BCE6865}"/>
-    <hyperlink ref="T5" r:id="rId5" xr:uid="{865DA6BD-39F9-4C4A-BC8A-B3F9811B35BF}"/>
-    <hyperlink ref="T3" r:id="rId6" xr:uid="{AE3BD386-7EAA-41D6-8CF2-B2BD59107862}"/>
-    <hyperlink ref="T8" r:id="rId7" xr:uid="{86E63BAF-FDA9-4F4B-A7EB-779D13F9A13D}"/>
-    <hyperlink ref="T9" r:id="rId8" xr:uid="{BD55630C-E6AD-4C42-B871-4D8821159014}"/>
-    <hyperlink ref="T10" r:id="rId9" xr:uid="{0A0564C1-7BC0-4755-B793-F475AB21A69E}"/>
+    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T6" r:id="rId2"/>
+    <hyperlink ref="T7" r:id="rId3"/>
+    <hyperlink ref="T4" r:id="rId4"/>
+    <hyperlink ref="T5" r:id="rId5"/>
+    <hyperlink ref="T3" r:id="rId6"/>
+    <hyperlink ref="T8" r:id="rId7"/>
+    <hyperlink ref="T9" r:id="rId8"/>
+    <hyperlink ref="T10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB66AF89-A33A-4263-9922-AE0C4039F46C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,19 +2681,19 @@
         <v>105</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="10" t="s">
         <v>106</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>107</v>
@@ -2698,10 +2717,10 @@
         <v>113</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>33</v>
@@ -2757,7 +2776,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>100</v>
@@ -2787,10 +2806,10 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M2" s="1">
         <v>2</v>
@@ -2802,7 +2821,7 @@
         <v>44</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>38</v>
@@ -2826,25 +2845,25 @@
         <v>114</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>44</v>
@@ -2862,7 +2881,7 @@
         <v>11</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>45</v>
@@ -2883,7 +2902,7 @@
         <v>56</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>53</v>
@@ -2918,7 +2937,7 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>100</v>
@@ -2948,10 +2967,10 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
@@ -2963,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>38</v>
@@ -2987,25 +3006,25 @@
         <v>114</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>44</v>
@@ -3023,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK3" s="6" t="s">
         <v>45</v>
@@ -3044,7 +3063,7 @@
         <v>56</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>53</v>
@@ -3079,7 +3098,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>100</v>
@@ -3109,10 +3128,10 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -3124,7 +3143,7 @@
         <v>44</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>38</v>
@@ -3148,25 +3167,25 @@
         <v>114</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>44</v>
@@ -3184,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK4" s="6" t="s">
         <v>45</v>
@@ -3205,7 +3224,7 @@
         <v>56</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>53</v>
@@ -3240,7 +3259,7 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>101</v>
@@ -3273,7 +3292,7 @@
         <v>81</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -3285,7 +3304,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>38</v>
@@ -3309,25 +3328,25 @@
         <v>114</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z5" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>44</v>
@@ -3345,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK5" s="6" t="s">
         <v>45</v>
@@ -3366,7 +3385,7 @@
         <v>56</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>53</v>
@@ -3401,7 +3420,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>101</v>
@@ -3431,10 +3450,10 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -3446,7 +3465,7 @@
         <v>44</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>38</v>
@@ -3470,25 +3489,25 @@
         <v>114</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>44</v>
@@ -3506,7 +3525,7 @@
         <v>11</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK6" s="6" t="s">
         <v>45</v>
@@ -3527,7 +3546,7 @@
         <v>56</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>53</v>
@@ -3562,7 +3581,7 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>101</v>
@@ -3592,10 +3611,10 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
@@ -3607,7 +3626,7 @@
         <v>44</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>38</v>
@@ -3631,25 +3650,25 @@
         <v>114</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z7" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>44</v>
@@ -3667,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK7" s="6" t="s">
         <v>45</v>
@@ -3688,7 +3707,7 @@
         <v>56</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>53</v>
@@ -3723,7 +3742,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>101</v>
@@ -3753,10 +3772,10 @@
         <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M8" s="1">
         <v>2</v>
@@ -3768,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>38</v>
@@ -3792,25 +3811,25 @@
         <v>114</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>44</v>
@@ -3828,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK8" s="6" t="s">
         <v>45</v>
@@ -3849,7 +3868,7 @@
         <v>56</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>53</v>
@@ -3884,7 +3903,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>101</v>
@@ -3917,7 +3936,7 @@
         <v>77</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M9" s="1">
         <v>2</v>
@@ -3929,7 +3948,7 @@
         <v>44</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>38</v>
@@ -3953,25 +3972,25 @@
         <v>114</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE9" s="4" t="s">
         <v>44</v>
@@ -3989,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK9" s="6" t="s">
         <v>45</v>
@@ -4010,7 +4029,7 @@
         <v>56</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>53</v>
@@ -4045,7 +4064,7 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>101</v>
@@ -4075,10 +4094,10 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="M10" s="1">
         <v>2</v>
@@ -4090,7 +4109,7 @@
         <v>44</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>38</v>
@@ -4114,25 +4133,25 @@
         <v>114</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE10" s="4" t="s">
         <v>44</v>
@@ -4150,7 +4169,7 @@
         <v>11</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK10" s="6" t="s">
         <v>45</v>
@@ -4171,7 +4190,7 @@
         <v>56</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR10" s="1" t="s">
         <v>53</v>
@@ -4206,7 +4225,7 @@
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>101</v>
@@ -4236,10 +4255,10 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M11" s="1">
         <v>2</v>
@@ -4251,7 +4270,7 @@
         <v>44</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>38</v>
@@ -4275,25 +4294,25 @@
         <v>114</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA11" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE11" s="4" t="s">
         <v>44</v>
@@ -4311,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK11" s="6" t="s">
         <v>45</v>
@@ -4332,7 +4351,7 @@
         <v>56</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="AR11" s="1" t="s">
         <v>53</v>
@@ -4367,7 +4386,7 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>101</v>
@@ -4397,10 +4416,10 @@
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M12" s="1">
         <v>2</v>
@@ -4436,25 +4455,25 @@
         <v>114</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z12" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE12" s="4" t="s">
         <v>44</v>
@@ -4472,7 +4491,7 @@
         <v>11</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK12" s="6" t="s">
         <v>45</v>
@@ -4493,7 +4512,7 @@
         <v>56</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>53</v>
@@ -4528,7 +4547,7 @@
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>101</v>
@@ -4558,10 +4577,10 @@
         <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="M13" s="1">
         <v>6</v>
@@ -4597,25 +4616,25 @@
         <v>114</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE13" s="4" t="s">
         <v>44</v>
@@ -4633,7 +4652,7 @@
         <v>11</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK13" s="6" t="s">
         <v>45</v>
@@ -4654,7 +4673,7 @@
         <v>56</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR13" s="1" t="s">
         <v>53</v>
@@ -4689,13 +4708,13 @@
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -4719,22 +4738,22 @@
         <v>10</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="M14" s="1">
         <v>2</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>38</v>
@@ -4758,25 +4777,25 @@
         <v>114</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z14" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE14" s="4" t="s">
         <v>44</v>
@@ -4794,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK14" s="6" t="s">
         <v>45</v>
@@ -4815,7 +4834,7 @@
         <v>56</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR14" s="1" t="s">
         <v>53</v>
@@ -4850,13 +4869,13 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -4880,22 +4899,22 @@
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="M15" s="1">
         <v>2</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>38</v>
@@ -4919,16 +4938,16 @@
         <v>114</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>80</v>
@@ -4937,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>44</v>
@@ -4955,7 +4974,7 @@
         <v>80</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK15" s="6" t="s">
         <v>45</v>
@@ -4976,7 +4995,7 @@
         <v>56</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR15" s="1" t="s">
         <v>53</v>
@@ -5011,13 +5030,13 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -5041,22 +5060,22 @@
         <v>10</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>38</v>
@@ -5080,16 +5099,16 @@
         <v>114</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>80</v>
@@ -5098,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>44</v>
@@ -5116,7 +5135,7 @@
         <v>80</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK16" s="6" t="s">
         <v>45</v>
@@ -5137,7 +5156,7 @@
         <v>56</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR16" s="1" t="s">
         <v>53</v>
@@ -5172,13 +5191,13 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -5202,22 +5221,22 @@
         <v>10</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="M17" s="1">
         <v>2</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>38</v>
@@ -5241,25 +5260,25 @@
         <v>114</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Z17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>44</v>
@@ -5277,7 +5296,7 @@
         <v>80</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK17" s="6" t="s">
         <v>45</v>
@@ -5298,7 +5317,7 @@
         <v>56</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR17" s="1" t="s">
         <v>53</v>
@@ -5333,13 +5352,13 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -5363,22 +5382,22 @@
         <v>10</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="M18" s="1">
         <v>2</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>38</v>
@@ -5402,16 +5421,16 @@
         <v>114</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>80</v>
@@ -5420,7 +5439,7 @@
         <v>2</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AE18" s="4" t="s">
         <v>44</v>
@@ -5438,7 +5457,7 @@
         <v>80</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK18" s="6" t="s">
         <v>45</v>
@@ -5459,7 +5478,7 @@
         <v>56</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR18" s="1" t="s">
         <v>53</v>
@@ -5494,13 +5513,13 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -5524,22 +5543,22 @@
         <v>10</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="M19" s="1">
         <v>2</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>38</v>
@@ -5563,16 +5582,16 @@
         <v>114</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>80</v>
@@ -5581,7 +5600,7 @@
         <v>2</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AE19" s="4" t="s">
         <v>44</v>
@@ -5599,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK19" s="6" t="s">
         <v>45</v>
@@ -5620,7 +5639,7 @@
         <v>56</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AR19" s="1" t="s">
         <v>53</v>
@@ -5655,51 +5674,485 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T19" xr:uid="{0547ABC9-C99F-4B35-8DEE-9943C9947B55}">
+  <dataValidations disablePrompts="1" count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T19">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R19 U2:V19 Y2:Y19 AB2:AB19 AG2:AG19 AI2:AI19" xr:uid="{C1365E5A-BB29-4FD7-BD02-B1673A71BB7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R19 U2:V19 Y2:Y19 AB2:AB19 AG2:AG19 AI2:AI19">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19" xr:uid="{48A5BCFB-FA20-4432-94C6-8B16AB999CA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19">
       <formula1>"LogIn,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS19" xr:uid="{85E96DC5-272B-46C9-B8F9-273408B63B34}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS19">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR19" xr:uid="{569F8DB0-1EE4-4FE1-ACB5-4A459A080380}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR19">
       <formula1>"Master Card,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B19" xr:uid="{A2BC358B-4B1F-4D13-A905-A277C905D493}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B19">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ19" xr:uid="{B9FCBA7F-BAD9-462B-9392-2829AE4B8A19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ19">
       <formula1>"1 Star and above,2 Star and above,3 Star and above,4 Star and above,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH19" xr:uid="{695F3B0A-10EB-4E5A-8527-4A2D01815A14}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH19">
       <formula1>"USD,BHD,AED,SAR,INR,OMR,ZAR,TRY,QAR,EUR,IQD"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AK2" r:id="rId1" xr:uid="{1116AF8F-7CF9-4A4B-866D-7A7CF53ED284}"/>
-    <hyperlink ref="AK3" r:id="rId2" xr:uid="{BA6A037D-4FE9-409A-B1E7-428A50889156}"/>
-    <hyperlink ref="AK5" r:id="rId3" xr:uid="{0D3F4B56-8098-4456-B915-92C414BC9402}"/>
-    <hyperlink ref="AK9" r:id="rId4" xr:uid="{B9036455-282C-483A-87AC-6A52A95C361E}"/>
-    <hyperlink ref="AK10" r:id="rId5" xr:uid="{62555B4D-86EB-45DA-963A-15E69FEE8FF2}"/>
-    <hyperlink ref="AK7" r:id="rId6" xr:uid="{5F7B1C1C-6333-4817-913C-8D41F7E50D77}"/>
-    <hyperlink ref="AK8" r:id="rId7" xr:uid="{3D2C91DD-A1FB-48E0-A22C-C6C5A92DC807}"/>
-    <hyperlink ref="AK6" r:id="rId8" xr:uid="{24E12CF8-12B7-4B44-B582-68A2F8E1D9A9}"/>
-    <hyperlink ref="AK11" r:id="rId9" xr:uid="{19B5970D-491E-4F47-81BE-57935B733E9F}"/>
-    <hyperlink ref="AK12" r:id="rId10" xr:uid="{CADDB067-BA1A-4AA3-8B9F-3F3EF7ED6111}"/>
-    <hyperlink ref="AK13" r:id="rId11" xr:uid="{7483FAA6-B261-47B2-B505-F3ABB0DF8C1E}"/>
-    <hyperlink ref="AK4" r:id="rId12" xr:uid="{CB6AFC0E-9A6E-4FBA-8406-49D7831F10F8}"/>
-    <hyperlink ref="AK14" r:id="rId13" xr:uid="{595CEE87-649D-4C57-ACC5-61CCB2519C8A}"/>
-    <hyperlink ref="AK15" r:id="rId14" xr:uid="{7D44EC70-511B-4310-A409-752DD4086991}"/>
-    <hyperlink ref="AK16" r:id="rId15" xr:uid="{5BD6F5F2-9D5A-440C-AF36-4C9F0AF7985D}"/>
-    <hyperlink ref="AK17" r:id="rId16" xr:uid="{0A880C08-7DD8-4C0E-91DA-ED041B873D69}"/>
-    <hyperlink ref="AK18" r:id="rId17" xr:uid="{805BEFE1-0631-4163-A811-213FFA78E08B}"/>
-    <hyperlink ref="AK19" r:id="rId18" xr:uid="{422B31FF-A48A-46A3-A480-70A5A7573F3F}"/>
+    <hyperlink ref="AK2" r:id="rId1"/>
+    <hyperlink ref="AK3" r:id="rId2"/>
+    <hyperlink ref="AK5" r:id="rId3"/>
+    <hyperlink ref="AK9" r:id="rId4"/>
+    <hyperlink ref="AK10" r:id="rId5"/>
+    <hyperlink ref="AK7" r:id="rId6"/>
+    <hyperlink ref="AK8" r:id="rId7"/>
+    <hyperlink ref="AK6" r:id="rId8"/>
+    <hyperlink ref="AK11" r:id="rId9"/>
+    <hyperlink ref="AK12" r:id="rId10"/>
+    <hyperlink ref="AK13" r:id="rId11"/>
+    <hyperlink ref="AK4" r:id="rId12"/>
+    <hyperlink ref="AK14" r:id="rId13"/>
+    <hyperlink ref="AK15" r:id="rId14"/>
+    <hyperlink ref="AK16" r:id="rId15"/>
+    <hyperlink ref="AK17" r:id="rId16"/>
+    <hyperlink ref="AK18" r:id="rId17"/>
+    <hyperlink ref="AK19" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AQ27" sqref="AQ27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>8447422233</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>123</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
+      <formula1>"USD,BHD,AED,SAR,INR,OMR,ZAR,TRY,QAR,EUR,IQD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2">
+      <formula1>"1 Star and above,2 Star and above,3 Star and above,4 Star and above,5 Star"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2">
+      <formula1>"Master Card,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"LogIn,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 U2:V2 Y2 AB2 AG2 AI2">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AK2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
